--- a/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,8 +3400,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="31.493394" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.509872" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="31.423256" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.777734" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" customFormat="1" ht="32.770642" customHeight="1">
@@ -3462,25 +3462,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.505971" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.166487" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.721622" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.726789" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.239899" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.983696" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="19.268783" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="18.770319" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.849106" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="17.123528" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="16.024005" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="15.093358" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="13.848935" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="12.741496" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="11.389983" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="10.139402" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="8.721864" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="7.366139" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="5.925647" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.533911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.13706" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.901644" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.735742" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.425101" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.993518" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="19.444279" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="18.781562" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.010412" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="17.136698" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="16.167069" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="15.108905" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="13.970259" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="12.759796" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="11.486729" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="10.160748" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="8.791942" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="7.390731" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="5.967777" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3562,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.505971" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="49.568338" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="68.742169" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="68.197216" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="67.29357" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="66.038109" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="64.440387" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="62.512564" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="60.269312" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="57.727704" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="54.907082" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="51.828914" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="48.516625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="44.995425" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="41.292112" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="37.434871" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="33.453056" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="29.376973" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="25.237643" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.533911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="49.678862" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="67.574455" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="67.028243" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="66.12251" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="64.86415" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="63.262738" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="61.330463" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="59.082031" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="56.534553" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="53.707417" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="50.62214" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="47.302202" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="43.77287" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="40.061004" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="36.194855" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="32.203845" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="28.118349" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="23.969459" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3892,7 +3892,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.014599" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.127584" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
